--- a/medicine/Enfance/Ignacio_Padilla/Ignacio_Padilla.xlsx
+++ b/medicine/Enfance/Ignacio_Padilla/Ignacio_Padilla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ignacio Fernando Padilla Suárez, né le 7 novembre 1968 à Mexico (Mexique) et mort le 20 août 2016 à Querétaro[1], est un romancier, nouvelliste, essayiste et un auteur de récits de science-fiction et de littérature d'enfance et de jeunesse mexicain.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ignacio Fernando Padilla Suárez, né le 7 novembre 1968 à Mexico (Mexique) et mort le 20 août 2016 à Querétaro, est un romancier, nouvelliste, essayiste et un auteur de récits de science-fiction et de littérature d'enfance et de jeunesse mexicain.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ignacio Padilla est diplômé en communications de l'université ibéro-américaine (Mexico), détient une maîtrise en littérature anglaise de l'université d'Édimbourg (Écosse) et est titulaire d'un doctorat en espagnol et en littérature latino-américaine de l'université de Salamanque (Espagne). 
 Au milieu des années 1990, il travaille comme directeur de rédaction de l'édition espagnole du magazine Playboy et publie une chronique dans le supplément de samedi du journal mexicain Unomásuno (es). En 1994, il publie El año de los gatos amurallados et Las tormentas del mar embotellado, deux romans de littérature d'enfance et de jeunesse, ainsi que le roman Impossibilité des corbeaux (Tres bosquejos del mal).
@@ -547,7 +561,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1994 : Prix Juan Rulfo
 1994 : Prix Kalpaen
@@ -584,7 +600,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Subterráneos (1990)
 Los papeles del dragón típico (1991)
@@ -600,9 +618,43 @@
 El diablo y Cervantes (2005)
 La gruta del Toscano (2006)
 El androide y las quimeras (2008)
-Por un tornillo (2009)
-Nouvelle isolée traduite en français
-« Les Antipodes et le Siècle », traduit par Svetlana Doubin, in Les Bonnes Nouvelles de l'Amérique latine, Gallimard, coll. « Du monde entier », 2010  (ISBN 978-2-07-012942-3)</t>
+Por un tornillo (2009)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ignacio_Padilla</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ignacio_Padilla</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nouvelle isolée traduite en français</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>« Les Antipodes et le Siècle », traduit par Svetlana Doubin, in Les Bonnes Nouvelles de l'Amérique latine, Gallimard, coll. « Du monde entier », 2010  (ISBN 978-2-07-012942-3)</t>
         </is>
       </c>
     </row>
